--- a/tests/test_project_economic_index/Documentation/test_project_economic_index_2017_bg_config_2017_bg.xlsx
+++ b/tests/test_project_economic_index/Documentation/test_project_economic_index_2017_bg_config_2017_bg.xlsx
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.8398191004167509</v>
+        <v>-0.842394949704139</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.928940200593792</v>
+        <v>-0.9279813466186394</v>
       </c>
     </row>
     <row r="4">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9107338366867632</v>
+        <v>-0.911674792442468</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.397662138990227</v>
+        <v>2.401929558134199</v>
       </c>
     </row>
     <row r="3">
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7992207129967425</v>
+        <v>0.8006431860447331</v>
       </c>
     </row>
     <row r="4">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7992207129967425</v>
+        <v>0.8006431860447331</v>
       </c>
     </row>
     <row r="5">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.397662138990227</v>
+        <v>2.401929558134199</v>
       </c>
     </row>
     <row r="3">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7992207129967425</v>
+        <v>0.8006431860447331</v>
       </c>
     </row>
     <row r="4">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7992207129967425</v>
+        <v>0.8006431860447331</v>
       </c>
     </row>
     <row r="5">
@@ -689,7 +689,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['PERCAP', 'MDHSEVAL', 'QRICH']]</t>
+          <t>[['QRICH', 'PERCAP', 'MDHSEVAL']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/tests/test_project_economic_index/Documentation/test_project_economic_index_2017_bg_config_2017_bg.xlsx
+++ b/tests/test_project_economic_index/Documentation/test_project_economic_index_2017_bg_config_2017_bg.xlsx
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.842394949704139</v>
+        <v>-0.8423949497057721</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.9279813466186394</v>
+        <v>-0.9279813466191453</v>
       </c>
     </row>
     <row r="4">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.911674792442468</v>
+        <v>-0.911674792441024</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.401929558134199</v>
+        <v>2.401929558135257</v>
       </c>
     </row>
     <row r="3">
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8006431860447331</v>
+        <v>0.8006431860450857</v>
       </c>
     </row>
     <row r="4">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8006431860447331</v>
+        <v>0.8006431860450857</v>
       </c>
     </row>
     <row r="5">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.401929558134199</v>
+        <v>2.401929558135257</v>
       </c>
     </row>
     <row r="3">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8006431860447331</v>
+        <v>0.8006431860450857</v>
       </c>
     </row>
     <row r="4">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8006431860447331</v>
+        <v>0.8006431860450857</v>
       </c>
     </row>
     <row r="5">
@@ -689,7 +689,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['QRICH', 'PERCAP', 'MDHSEVAL']]</t>
+          <t>[['PERCAP', 'QRICH', 'MDHSEVAL']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/tests/test_project_economic_index/Documentation/test_project_economic_index_2017_bg_config_2017_bg.xlsx
+++ b/tests/test_project_economic_index/Documentation/test_project_economic_index_2017_bg_config_2017_bg.xlsx
@@ -689,7 +689,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['PERCAP', 'QRICH', 'MDHSEVAL']]</t>
+          <t>[['MDHSEVAL', 'QRICH', 'PERCAP']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/tests/test_project_economic_index/Documentation/test_project_economic_index_2017_bg_config_2017_bg.xlsx
+++ b/tests/test_project_economic_index/Documentation/test_project_economic_index_2017_bg_config_2017_bg.xlsx
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.8423949497057721</v>
+        <v>-0.8423949497049417</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.9279813466191453</v>
+        <v>-0.9279813466201033</v>
       </c>
     </row>
     <row r="4">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.911674792441024</v>
+        <v>-0.9116747924402694</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.401929558135257</v>
+        <v>2.40192955813426</v>
       </c>
     </row>
     <row r="3">
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8006431860450857</v>
+        <v>0.8006431860447533</v>
       </c>
     </row>
     <row r="4">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8006431860450857</v>
+        <v>0.8006431860447533</v>
       </c>
     </row>
     <row r="5">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.401929558135257</v>
+        <v>2.40192955813426</v>
       </c>
     </row>
     <row r="3">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8006431860450857</v>
+        <v>0.8006431860447533</v>
       </c>
     </row>
     <row r="4">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8006431860450857</v>
+        <v>0.8006431860447533</v>
       </c>
     </row>
     <row r="5">
@@ -689,7 +689,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['MDHSEVAL', 'PERCAP', 'QRICH']]</t>
+          <t>[['QRICH', 'PERCAP', 'MDHSEVAL']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
